--- a/docs/Estimation.xlsx
+++ b/docs/Estimation.xlsx
@@ -15,116 +15,149 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>Task</t>
   </si>
   <si>
+    <t>Time in hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once user has signed into (app name) should have option to click on spotify button -create buttons and link button to spotify </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user hits on spotify button, spotify API will bring them to the spotify login page - need to get api key for spotify </t>
+  </si>
+  <si>
+    <t>If the user does not have an account, will have to click on spotifys new user option and create an account - happens within spotify</t>
+  </si>
+  <si>
+    <t>If user is not interested in the service, or does not want to create a spotify account (interface)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If user does have a spotify account will be asked to put in their spotify credtintials in order to log into the app </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the users inputs from the calendar, spotify will search database for playlist corresponding to the users activities (prob one activity at a time) - write code to look at specific spotify playlists and generes </t>
+  </si>
+  <si>
+    <t>Next step: Use event titles from caleandar to search for playlists with related names</t>
+  </si>
+  <si>
+    <t>Spotify will then return these playlists for the user to look through - code to return playlsits to user</t>
+  </si>
+  <si>
+    <t>Optionally: display playlists on page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user will then have a choice to save those playlists to their personal spotify account to access later </t>
+  </si>
+  <si>
+    <t xml:space="preserve">decide whether to log out of spotify or save credentials, return user back to homepage of website </t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
     <t>Estimation</t>
   </si>
   <si>
-    <t>Time in hours</t>
+    <t>Spotify Login/Create account</t>
   </si>
   <si>
     <t>Hours</t>
   </si>
   <si>
-    <t>Spotify Login/Create account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Once user has signed into (app name) should have option to click on spotify button -create buttons and link button to spotify </t>
-  </si>
-  <si>
     <t>Use Spotify API to retrieve user information</t>
   </si>
   <si>
+    <t>save user information to the user table</t>
+  </si>
+  <si>
+    <t>create user interface for login (webpage)</t>
+  </si>
+  <si>
     <t>Spotify OAUth</t>
   </si>
   <si>
-    <t xml:space="preserve">When user hits on spotify button, spotify API will bring them to the spotify login page - need to get api key for spotify </t>
+    <t>some kind of auth to access user info</t>
+  </si>
+  <si>
+    <t>keep me logged in</t>
   </si>
   <si>
     <t>Generate playlist button (front end)</t>
   </si>
   <si>
-    <t>If the user does not have an account, will have to click on spotifys new user option and create an account - happens within spotify</t>
-  </si>
-  <si>
-    <t>save user information to the user table</t>
-  </si>
-  <si>
     <t>If not logged in to Google Calendar, prompt to log in</t>
   </si>
   <si>
-    <t>create user interface for login (webpage)</t>
-  </si>
-  <si>
-    <t>If user is not interested in the service, or does not want to create a spotify account (interface)</t>
-  </si>
-  <si>
-    <t>some kind of auth to access user info</t>
-  </si>
-  <si>
     <t>Look up playlist relating to schedule</t>
   </si>
   <si>
-    <t xml:space="preserve">If user does have a spotify account will be asked to put in their spotify credtintials in order to log into the app </t>
-  </si>
-  <si>
-    <t>keep me logged in</t>
-  </si>
-  <si>
     <t>depending on how we implement it</t>
   </si>
   <si>
+    <t>Open spotify weblinks/spotify app with playlist</t>
+  </si>
+  <si>
     <t>dynamically download user's spotify info to our user database</t>
   </si>
   <si>
-    <t>Open spotify weblinks/spotify app with playlist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using the users inputs from the calendar, spotify will search database for playlist corresponding to the users activities (prob one activity at a time) - write code to look at specific spotify playlists and generes </t>
+    <t>Database with Spotify credentials to keep logged in</t>
   </si>
   <si>
     <t>save generated playlist to user's spotify account</t>
   </si>
   <si>
-    <t>Database with Spotify credentials to keep logged in</t>
-  </si>
-  <si>
-    <t>Next step: Use event titles from caleandar to search for playlists with related names</t>
-  </si>
-  <si>
-    <t>Spotify will then return these playlists for the user to look through - code to return playlsits to user</t>
+    <t>Display calendar (front end)</t>
+  </si>
+  <si>
+    <t>Log into app</t>
+  </si>
+  <si>
+    <t>Keep app login credentials in database</t>
+  </si>
+  <si>
+    <t>Create account for app</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Optionally: display playlists on page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The user will then have a choice to save those playlists to their personal spotify account to access later </t>
-  </si>
-  <si>
-    <t xml:space="preserve">decide whether to log out of spotify or save credentials, return user back to homepage of website </t>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Task </t>
   </si>
   <si>
+    <t>8 hrs</t>
+  </si>
+  <si>
     <t>Time Estimation</t>
   </si>
   <si>
     <t>Allow user to login to Spotify</t>
   </si>
   <si>
+    <t xml:space="preserve">6 hrs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the user does not have an account, will have to click on spotifys new user option and create an account - happens within spotify or can make seperate button on website that directly takes user to new user sign in on spotify </t>
+  </si>
+  <si>
+    <t>6 hrs</t>
+  </si>
+  <si>
     <t>Google and Spotify OAuth</t>
   </si>
   <si>
+    <t xml:space="preserve">If user did not previously have an account will have to be redirected to login in page to login with their new account - api needs to recognize individual credinitals </t>
+  </si>
+  <si>
+    <t>10 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spotify will then return these playlists for the user to look through - have code to return playlsits to user </t>
+  </si>
+  <si>
     <t>Allow user to create new account</t>
   </si>
   <si>
@@ -137,6 +170,9 @@
     <t>Look at user's calendar and find playlists that relate to events</t>
   </si>
   <si>
+    <t>4 hrs</t>
+  </si>
+  <si>
     <t>Display playlists next to each event</t>
   </si>
   <si>
@@ -144,30 +180,6 @@
   </si>
   <si>
     <t>If user does not want to create the needed accounts</t>
-  </si>
-  <si>
-    <t>8 hrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 hrs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the user does not have an account, will have to click on spotifys new user option and create an account - happens within spotify or can make seperate button on website that directly takes user to new user sign in on spotify </t>
-  </si>
-  <si>
-    <t>6 hrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If user did not previously have an account will have to be redirected to login in page to login with their new account - api needs to recognize individual credinitals </t>
-  </si>
-  <si>
-    <t>10 hrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spotify will then return these playlists for the user to look through - have code to return playlsits to user </t>
-  </si>
-  <si>
-    <t>4 hrs</t>
   </si>
   <si>
     <t>Maybe have option where the user can also save playlist to website and display on the side to have easy access (might be possible bc spotify is free on computer)</t>
@@ -470,12 +482,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>4.0</v>
@@ -483,7 +495,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>2.0</v>
@@ -491,7 +503,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>2.0</v>
@@ -499,7 +511,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
@@ -507,7 +519,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>3.0</v>
@@ -515,7 +527,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>10.0</v>
@@ -523,7 +535,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>20.0</v>
@@ -531,7 +543,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>5.0</v>
@@ -539,7 +551,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>20.0</v>
@@ -547,7 +559,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>3.0</v>
@@ -555,7 +567,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>10.0</v>
@@ -563,7 +575,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <f>SUM(B2:B12)</f>
@@ -593,12 +605,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>5.0</v>
@@ -606,7 +618,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
@@ -614,7 +626,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1">
         <v>3.0</v>
@@ -622,18 +634,18 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1">
         <v>15.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>5.0</v>
@@ -641,19 +653,51 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <v>15.0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1">
-        <f>SUM(B2:B7)</f>
-        <v>44</v>
+        <f>SUM(B2:B11)</f>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -679,12 +723,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>2.0</v>
@@ -692,7 +736,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>2.0</v>
@@ -700,7 +744,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>1.0</v>
@@ -708,7 +752,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
         <v>4.0</v>
@@ -716,7 +760,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>1.0</v>
@@ -724,7 +768,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>2.0</v>
@@ -732,7 +776,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
         <v>3.0</v>
@@ -740,7 +784,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>2.0</v>
@@ -748,7 +792,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
         <v>1.0</v>
@@ -774,15 +818,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>5.0</v>
@@ -790,7 +834,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1">
         <v>5.0</v>
@@ -798,7 +842,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1">
         <v>2.0</v>
@@ -806,7 +850,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1">
         <v>2.0</v>
@@ -814,7 +858,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1">
         <v>2.0</v>
@@ -822,7 +866,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B7" s="4">
         <v>8.0</v>
@@ -830,7 +874,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1">
         <v>3.0</v>
@@ -838,7 +882,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1">
         <v>5.0</v>
@@ -846,7 +890,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
@@ -872,82 +916,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
